--- a/Graphs/DFA/DFA Drawing/Transatin Table.xlsx
+++ b/Graphs/DFA/DFA Drawing/Transatin Table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F534C2-47C3-44B2-B0A4-06B3AC42E7E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446EAB69-DD0A-4FF1-BF56-AE353F71B691}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="204">
   <si>
     <t>AO</t>
   </si>
@@ -623,6 +623,15 @@
   </si>
   <si>
     <t>Accept</t>
+  </si>
+  <si>
+    <t>NO valid</t>
+  </si>
+  <si>
+    <t>[A-Za-z_]</t>
+  </si>
+  <si>
+    <t>[0-9][A-Za-z_]</t>
   </si>
 </sst>
 </file>
@@ -692,9 +701,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C1DBF657-6D38-4361-BEB0-50797E7202AD}" name="Table3" displayName="Table3" ref="A1:BB187" totalsRowShown="0">
-  <autoFilter ref="A1:BB187" xr:uid="{FEE0E608-D31F-4525-BF42-82783BB7C876}"/>
-  <tableColumns count="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C1DBF657-6D38-4361-BEB0-50797E7202AD}" name="Table3" displayName="Table3" ref="A1:BE187" totalsRowShown="0">
+  <autoFilter ref="A1:BE187" xr:uid="{FEE0E608-D31F-4525-BF42-82783BB7C876}"/>
+  <tableColumns count="57">
     <tableColumn id="1" xr3:uid="{664168F1-73AB-4CAC-94DE-E87FA6A07DA3}" name="DFA STATE  " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{24506A4F-2BE9-4B97-83C2-70156E3B1DA5}" name="Type  " dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{89133B4D-B15F-4F56-A07B-1F193B6A0869}" name="!" dataDxfId="0"/>
@@ -749,6 +758,9 @@
     <tableColumn id="52" xr3:uid="{2D09F247-758B-46F1-AE42-E4952F51829D}" name="&quot;"/>
     <tableColumn id="53" xr3:uid="{8F78DE12-E3FE-4468-99C5-89D05392D5E3}" name="&quot;(&quot;"/>
     <tableColumn id="54" xr3:uid="{5B446A69-CD8F-4889-82CD-3246F1625A35}" name="&quot;)&quot;"/>
+    <tableColumn id="55" xr3:uid="{E7BB1165-D310-4006-A3FE-58AB08D02C47}" name="NO valid"/>
+    <tableColumn id="56" xr3:uid="{4754B648-194B-45E6-A9F9-02E16BD21285}" name="[A-Za-z_]"/>
+    <tableColumn id="57" xr3:uid="{7206BB2B-984A-439F-9E58-DF9C99F3B3D5}" name="[0-9][A-Za-z_]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1017,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB187"/>
+  <dimension ref="A1:BE187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1032,9 +1044,11 @@
     <col min="8" max="8" width="9.3984375" customWidth="1"/>
     <col min="9" max="9" width="20.69921875" customWidth="1"/>
     <col min="10" max="21" width="10.69921875" customWidth="1"/>
+    <col min="56" max="56" width="12.3984375" customWidth="1"/>
+    <col min="57" max="57" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>199</v>
       </c>
@@ -1197,8 +1211,17 @@
       <c r="BB1" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>150</v>
       </c>
@@ -1302,8 +1325,11 @@
       <c r="BB2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>151</v>
       </c>
@@ -1311,8 +1337,11 @@
       <c r="K3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
@@ -1320,8 +1349,11 @@
       <c r="D4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>110</v>
       </c>
@@ -1329,8 +1361,11 @@
       <c r="E5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>111</v>
       </c>
@@ -1340,8 +1375,11 @@
       <c r="F6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
@@ -1349,7 +1387,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>152</v>
       </c>
@@ -1357,7 +1395,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>153</v>
       </c>
@@ -1367,8 +1405,11 @@
       <c r="I9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>112</v>
       </c>
@@ -1381,8 +1422,11 @@
       <c r="M10" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>154</v>
       </c>
@@ -1392,8 +1436,11 @@
       <c r="K11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>155</v>
       </c>
@@ -1403,8 +1450,11 @@
       <c r="K12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>113</v>
       </c>
@@ -1414,8 +1464,11 @@
       <c r="L13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>156</v>
       </c>
@@ -1432,8 +1485,11 @@
       <c r="AM14" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>114</v>
       </c>
@@ -1441,8 +1497,11 @@
       <c r="AD15" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>157</v>
       </c>
@@ -1453,8 +1512,11 @@
       <c r="AL16" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BC16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>115</v>
       </c>
@@ -1465,8 +1527,11 @@
       <c r="AJ17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BC17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>158</v>
       </c>
@@ -1474,8 +1539,11 @@
       <c r="AM18" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BC18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
@@ -1483,8 +1551,11 @@
       <c r="AM19" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BC19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>117</v>
       </c>
@@ -1492,8 +1563,11 @@
       <c r="AO20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BC20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>159</v>
       </c>
@@ -1504,8 +1578,11 @@
       <c r="AM21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BC21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>118</v>
       </c>
@@ -1516,8 +1593,11 @@
       <c r="AH22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BC22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>160</v>
       </c>
@@ -1525,8 +1605,11 @@
       <c r="AP23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BC23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>161</v>
       </c>
@@ -1534,7 +1617,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>162</v>
       </c>
@@ -1542,7 +1625,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>163</v>
       </c>
@@ -1550,7 +1633,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>164</v>
       </c>
@@ -1558,8 +1641,11 @@
       <c r="AH27" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BC27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>176</v>
       </c>
@@ -1567,8 +1653,11 @@
       <c r="AD28" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BC28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>177</v>
       </c>
@@ -1576,7 +1665,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>178</v>
       </c>
@@ -1584,7 +1673,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>179</v>
       </c>
@@ -1592,7 +1681,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>180</v>
       </c>
@@ -1600,7 +1689,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>181</v>
       </c>
@@ -1608,7 +1697,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>182</v>
       </c>
@@ -1616,7 +1705,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>183</v>
       </c>
@@ -1624,7 +1713,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>184</v>
       </c>
@@ -1632,7 +1721,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>185</v>
       </c>
@@ -1640,7 +1729,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>186</v>
       </c>
@@ -1648,7 +1737,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>187</v>
       </c>
@@ -1656,7 +1745,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>188</v>
       </c>
@@ -1664,7 +1753,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>189</v>
       </c>
@@ -1672,7 +1761,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1769,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1688,7 +1777,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -1696,7 +1785,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -1704,8 +1793,11 @@
       <c r="AQ45" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -1713,8 +1805,11 @@
       <c r="AD46" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>190</v>
       </c>
@@ -1722,8 +1817,11 @@
       <c r="AM47" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>191</v>
       </c>
@@ -1731,8 +1829,11 @@
       <c r="AL48" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>192</v>
       </c>
@@ -1740,8 +1841,11 @@
       <c r="AO49" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>193</v>
       </c>
@@ -1749,8 +1853,11 @@
       <c r="AP50" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>194</v>
       </c>
@@ -1758,8 +1865,11 @@
       <c r="AC51" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>195</v>
       </c>
@@ -1767,7 +1877,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>196</v>
       </c>
@@ -1775,8 +1885,11 @@
       <c r="AA53" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>165</v>
       </c>
@@ -1784,8 +1897,11 @@
       <c r="AF54" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -1793,8 +1909,11 @@
       <c r="AL55" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -1802,8 +1921,11 @@
       <c r="AM56" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>167</v>
       </c>
@@ -1811,8 +1933,11 @@
       <c r="AN57" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -1820,8 +1945,11 @@
       <c r="AQ58" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -1832,8 +1960,11 @@
       <c r="AO59" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -1841,8 +1972,11 @@
       <c r="AJ60" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -1850,8 +1984,11 @@
       <c r="AH61" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>168</v>
       </c>
@@ -1859,8 +1996,11 @@
       <c r="AQ62" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>169</v>
       </c>
@@ -1868,8 +2008,11 @@
       <c r="AO63" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>170</v>
       </c>
@@ -1877,8 +2020,11 @@
       <c r="AD64" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -1886,8 +2032,11 @@
       <c r="AC65" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -1895,8 +2044,11 @@
       <c r="AN66" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>171</v>
       </c>
@@ -1904,8 +2056,11 @@
       <c r="AQ67" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
@@ -1913,8 +2068,11 @@
       <c r="AH68" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>172</v>
       </c>
@@ -1922,8 +2080,11 @@
       <c r="AD69" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
@@ -1931,7 +2092,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>14</v>
       </c>
@@ -1939,8 +2100,11 @@
       <c r="AN71" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>15</v>
       </c>
@@ -1948,8 +2112,11 @@
       <c r="AH72" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>16</v>
       </c>
@@ -1957,8 +2124,11 @@
       <c r="AD73" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>173</v>
       </c>
@@ -1966,8 +2136,11 @@
       <c r="AF74" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>17</v>
       </c>
@@ -1975,8 +2148,11 @@
       <c r="AJ75" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>174</v>
       </c>
@@ -1984,8 +2160,11 @@
       <c r="AA76" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>18</v>
       </c>
@@ -1993,8 +2172,11 @@
       <c r="AN77" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>19</v>
       </c>
@@ -2002,8 +2184,11 @@
       <c r="AH78" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2196,11 @@
       <c r="AA79" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="BC79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>21</v>
       </c>
@@ -2020,8 +2208,11 @@
       <c r="AL80" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>22</v>
       </c>
@@ -2029,8 +2220,11 @@
       <c r="AR81" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC81" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>23</v>
       </c>
@@ -2038,8 +2232,11 @@
       <c r="AK82" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>24</v>
       </c>
@@ -2047,8 +2244,11 @@
       <c r="AF83" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC83" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>25</v>
       </c>
@@ -2056,8 +2256,11 @@
       <c r="AI84" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC84" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>26</v>
       </c>
@@ -2065,7 +2268,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>27</v>
       </c>
@@ -2073,8 +2276,11 @@
       <c r="AH86" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC86" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>28</v>
       </c>
@@ -2082,8 +2288,11 @@
       <c r="AS87" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
@@ -2091,7 +2300,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>30</v>
       </c>
@@ -2101,8 +2310,11 @@
       <c r="AE89" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>31</v>
       </c>
@@ -2110,8 +2322,11 @@
       <c r="AB90" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,7 +2334,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>33</v>
       </c>
@@ -2127,8 +2342,11 @@
       <c r="AO92" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>34</v>
       </c>
@@ -2136,8 +2354,11 @@
       <c r="AU93" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC93" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>175</v>
       </c>
@@ -2145,8 +2366,11 @@
       <c r="AQ94" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC94" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>35</v>
       </c>
@@ -2154,7 +2378,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>36</v>
       </c>
@@ -2162,8 +2386,11 @@
       <c r="AD96" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>37</v>
       </c>
@@ -2171,8 +2398,11 @@
       <c r="AN97" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>38</v>
       </c>
@@ -2180,8 +2410,11 @@
       <c r="AF98" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC98" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>39</v>
       </c>
@@ -2189,8 +2422,11 @@
       <c r="AA99" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC99" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>40</v>
       </c>
@@ -2198,8 +2434,11 @@
       <c r="AH100" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC100" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>41</v>
       </c>
@@ -2207,8 +2446,11 @@
       <c r="AM101" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC101" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>42</v>
       </c>
@@ -2216,7 +2458,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>43</v>
       </c>
@@ -2224,8 +2466,11 @@
       <c r="AL103" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC103" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>44</v>
       </c>
@@ -2233,8 +2478,11 @@
       <c r="AD104" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC104" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>45</v>
       </c>
@@ -2242,7 +2490,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>46</v>
       </c>
@@ -2250,8 +2498,11 @@
       <c r="AA106" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC106" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>47</v>
       </c>
@@ -2259,8 +2510,11 @@
       <c r="AA107" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC107" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>48</v>
       </c>
@@ -2268,8 +2522,11 @@
       <c r="AT108" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC108" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>49</v>
       </c>
@@ -2277,8 +2534,11 @@
       <c r="AD109" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>50</v>
       </c>
@@ -2286,8 +2546,11 @@
       <c r="AP110" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>51</v>
       </c>
@@ -2298,7 +2561,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>52</v>
       </c>
@@ -2306,7 +2569,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>53</v>
       </c>
@@ -2314,8 +2577,11 @@
       <c r="AA113" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC113" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="114" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>54</v>
       </c>
@@ -2323,8 +2589,11 @@
       <c r="AL114" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC114" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="115" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>55</v>
       </c>
@@ -2332,8 +2601,11 @@
       <c r="AO115" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC115" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>56</v>
       </c>
@@ -2341,8 +2613,11 @@
       <c r="AR116" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC116" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>57</v>
       </c>
@@ -2350,7 +2625,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>58</v>
       </c>
@@ -2358,8 +2633,11 @@
       <c r="AJ118" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC118" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>59</v>
       </c>
@@ -2367,8 +2645,11 @@
       <c r="AK119" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC119" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>60</v>
       </c>
@@ -2376,8 +2657,11 @@
       <c r="AH120" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC120" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>61</v>
       </c>
@@ -2385,8 +2669,11 @@
       <c r="AT121" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC121" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>62</v>
       </c>
@@ -2394,7 +2681,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>63</v>
       </c>
@@ -2402,7 +2689,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>64</v>
       </c>
@@ -2410,8 +2697,11 @@
       <c r="AH124" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC124" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>65</v>
       </c>
@@ -2419,8 +2709,11 @@
       <c r="AA125" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC125" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="126" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>66</v>
       </c>
@@ -2428,8 +2721,11 @@
       <c r="AU126" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC126" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>67</v>
       </c>
@@ -2437,8 +2733,11 @@
       <c r="AD127" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="BC127" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>68</v>
       </c>
@@ -2446,7 +2745,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>69</v>
       </c>
@@ -2454,7 +2753,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>70</v>
       </c>
@@ -2462,8 +2761,11 @@
       <c r="AQ130" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC130" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="131" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>71</v>
       </c>
@@ -2471,8 +2773,11 @@
       <c r="AT131" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC131" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="132" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>72</v>
       </c>
@@ -2480,8 +2785,11 @@
       <c r="AM132" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC132" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="133" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>73</v>
       </c>
@@ -2489,8 +2797,11 @@
       <c r="AQ133" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC133" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="134" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>74</v>
       </c>
@@ -2498,7 +2809,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>75</v>
       </c>
@@ -2506,8 +2817,11 @@
       <c r="AT135" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC135" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="136" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>76</v>
       </c>
@@ -2515,8 +2829,11 @@
       <c r="AG136" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC136" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="137" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>77</v>
       </c>
@@ -2524,8 +2841,11 @@
       <c r="AD137" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="138" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC137" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>78</v>
       </c>
@@ -2533,8 +2853,11 @@
       <c r="AL138" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC138" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="139" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -2542,8 +2865,11 @@
       <c r="AD139" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC139" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="140" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>80</v>
       </c>
@@ -2551,8 +2877,11 @@
       <c r="AG140" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC140" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="141" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>81</v>
       </c>
@@ -2560,7 +2889,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>82</v>
       </c>
@@ -2568,8 +2897,11 @@
       <c r="AG142" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="143" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC142" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="143" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>83</v>
       </c>
@@ -2577,8 +2909,11 @@
       <c r="AM143" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="144" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC143" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="144" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>84</v>
       </c>
@@ -2586,8 +2921,11 @@
       <c r="AQ144" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BC144" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="145" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>85</v>
       </c>
@@ -2595,8 +2933,11 @@
       <c r="AD145" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BC145" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="146" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>86</v>
       </c>
@@ -2604,7 +2945,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>87</v>
       </c>
@@ -2612,8 +2953,11 @@
       <c r="AE147" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BC147" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>88</v>
       </c>
@@ -2621,8 +2965,11 @@
       <c r="AG148" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BC148" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="149" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>89</v>
       </c>
@@ -2630,8 +2977,11 @@
       <c r="AL149" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BC149" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="150" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>90</v>
       </c>
@@ -2642,7 +2992,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>91</v>
       </c>
@@ -2650,8 +3000,11 @@
       <c r="AP151" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BC151" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="152" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>92</v>
       </c>
@@ -2659,13 +3012,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B153" s="2"/>
-    </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BC153" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="154" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>94</v>
       </c>
@@ -2673,31 +3029,39 @@
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B155" s="2"/>
-    </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BD155" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="156" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B156" s="2"/>
-    </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="BE156" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="157" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B157" s="2"/>
-    </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B157" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">

--- a/Graphs/DFA/DFA Drawing/Transatin Table.xlsx
+++ b/Graphs/DFA/DFA Drawing/Transatin Table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446EAB69-DD0A-4FF1-BF56-AE353F71B691}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F95463-4822-4847-B4B6-87CCDF24F0AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="204">
   <si>
     <t>AO</t>
   </si>
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="G164" sqref="G164"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3042,7 +3042,9 @@
       <c r="A156" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B156" s="2"/>
+      <c r="B156" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="BE156" t="s">
         <v>97</v>
       </c>
